--- a/sources/Yakut_data.xlsx
+++ b/sources/Yakut_data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Yakut" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Yakut!$A$1:$S$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Yakut!$A$1:$U$131</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="726">
   <si>
     <t>language_no</t>
   </si>
@@ -2194,6 +2194,12 @@
   </si>
   <si>
     <t>Yakut</t>
+  </si>
+  <si>
+    <t>verb_original_orthography</t>
+  </si>
+  <si>
+    <t>sentence_original_orthography</t>
   </si>
 </sst>
 </file>
@@ -2568,10 +2574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44:L120"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2595,9 +2601,11 @@
     <col min="17" max="17" width="18.81640625" customWidth="1"/>
     <col min="18" max="18" width="28.6328125" customWidth="1"/>
     <col min="19" max="19" width="113.81640625" customWidth="1"/>
+    <col min="20" max="20" width="28.6328125" customWidth="1"/>
+    <col min="21" max="21" width="113.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2655,8 +2663,14 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T1" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>51</v>
       </c>
@@ -2693,17 +2707,19 @@
       <c r="L2" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>539</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S2" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>51</v>
       </c>
@@ -2740,17 +2756,19 @@
       <c r="L3" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>542</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S3" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>51</v>
       </c>
@@ -2794,8 +2812,10 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T4" s="7"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>51</v>
       </c>
@@ -2837,8 +2857,10 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T5" s="7"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>51</v>
       </c>
@@ -2875,17 +2897,19 @@
       <c r="L6" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>551</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S6" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>51</v>
       </c>
@@ -2928,9 +2952,11 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S7" s="5"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>51</v>
       </c>
@@ -2967,17 +2993,19 @@
       <c r="L8" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>555</v>
-      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S8" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>51</v>
       </c>
@@ -3019,8 +3047,10 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T9" s="7"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>51</v>
       </c>
@@ -3062,8 +3092,10 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T10" s="7"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>51</v>
       </c>
@@ -3107,8 +3139,10 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T11" s="7"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>51</v>
       </c>
@@ -3143,17 +3177,19 @@
       <c r="L12" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S12" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="T12" s="7"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>51</v>
       </c>
@@ -3197,8 +3233,10 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T13" s="7"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>51</v>
       </c>
@@ -3239,9 +3277,11 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S14" s="5"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>51</v>
       </c>
@@ -3284,9 +3324,11 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S15" s="5"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>51</v>
       </c>
@@ -3327,9 +3369,11 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S16" s="5"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>51</v>
       </c>
@@ -3371,8 +3415,10 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T17" s="7"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>51</v>
       </c>
@@ -3416,8 +3462,10 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="5"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T18" s="7"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>51</v>
       </c>
@@ -3452,17 +3500,19 @@
       <c r="L19" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>568</v>
-      </c>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S19" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="T19" s="7"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>51</v>
       </c>
@@ -3503,9 +3553,11 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S20" s="5"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>51</v>
       </c>
@@ -3547,8 +3599,10 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T21" s="7"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>51</v>
       </c>
@@ -3585,17 +3639,19 @@
       <c r="L22" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>571</v>
-      </c>
+      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S22" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>51</v>
       </c>
@@ -3637,8 +3693,10 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="5"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T23" s="7"/>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>51</v>
       </c>
@@ -3681,9 +3739,11 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S24" s="5"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>51</v>
       </c>
@@ -3727,8 +3787,10 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="5"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T25" s="7"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>51</v>
       </c>
@@ -3772,8 +3834,10 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="5"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T26" s="7"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>51</v>
       </c>
@@ -3808,17 +3872,19 @@
       <c r="L27" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>581</v>
-      </c>
+      <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="5"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S27" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="T27" s="7"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>51</v>
       </c>
@@ -3853,17 +3919,19 @@
       <c r="L28" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>583</v>
-      </c>
+      <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="5"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S28" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="T28" s="7"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>51</v>
       </c>
@@ -3905,8 +3973,10 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T29" s="7"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>51</v>
       </c>
@@ -3949,9 +4019,11 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S30" s="5"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>51</v>
       </c>
@@ -3988,17 +4060,19 @@
       <c r="L31" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>587</v>
-      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S31" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>51</v>
       </c>
@@ -4040,8 +4114,10 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="5"/>
-    </row>
-    <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T32" s="7"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>51</v>
       </c>
@@ -4085,8 +4161,10 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="5"/>
-    </row>
-    <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T33" s="7"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>51</v>
       </c>
@@ -4128,8 +4206,10 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="5"/>
-    </row>
-    <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T34" s="7"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>51</v>
       </c>
@@ -4166,17 +4246,19 @@
       <c r="L35" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>568</v>
-      </c>
+      <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
-    </row>
-    <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S35" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="T35" s="7"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>51</v>
       </c>
@@ -4218,8 +4300,10 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="5"/>
-    </row>
-    <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T36" s="7"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>51</v>
       </c>
@@ -4254,17 +4338,19 @@
       <c r="L37" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>581</v>
-      </c>
+      <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="5"/>
-    </row>
-    <row r="38" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S37" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="T37" s="7"/>
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>51</v>
       </c>
@@ -4299,17 +4385,19 @@
       <c r="L38" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>595</v>
-      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
-    </row>
-    <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S38" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="T38" s="7"/>
+      <c r="U38" s="5"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>51</v>
       </c>
@@ -4346,17 +4434,19 @@
       <c r="L39" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>598</v>
-      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
-    </row>
-    <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S39" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="T39" s="7"/>
+      <c r="U39" s="5"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>51</v>
       </c>
@@ -4391,17 +4481,19 @@
       <c r="L40" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M40" s="5" t="s">
-        <v>581</v>
-      </c>
+      <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="5"/>
-    </row>
-    <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S40" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="T40" s="7"/>
+      <c r="U40" s="5"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>51</v>
       </c>
@@ -4443,8 +4535,10 @@
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="5"/>
-    </row>
-    <row r="42" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T41" s="7"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>51</v>
       </c>
@@ -4486,8 +4580,10 @@
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="5"/>
-    </row>
-    <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T42" s="7"/>
+      <c r="U42" s="5"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>51</v>
       </c>
@@ -4520,17 +4616,19 @@
         <v>602</v>
       </c>
       <c r="L43" s="5"/>
-      <c r="M43" s="5" t="s">
-        <v>603</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
-    </row>
-    <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S43" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="5"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>51</v>
       </c>
@@ -4563,17 +4661,19 @@
         <v>602</v>
       </c>
       <c r="L44" s="5"/>
-      <c r="M44" s="5" t="s">
-        <v>605</v>
-      </c>
+      <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
-    </row>
-    <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S44" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="T44" s="7"/>
+      <c r="U44" s="5"/>
+    </row>
+    <row r="45" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>51</v>
       </c>
@@ -4615,8 +4715,10 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="5"/>
-    </row>
-    <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T45" s="7"/>
+      <c r="U45" s="5"/>
+    </row>
+    <row r="46" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>51</v>
       </c>
@@ -4660,8 +4762,10 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="5"/>
-    </row>
-    <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T46" s="7"/>
+      <c r="U46" s="5"/>
+    </row>
+    <row r="47" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>51</v>
       </c>
@@ -4703,8 +4807,10 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="5"/>
-    </row>
-    <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T47" s="7"/>
+      <c r="U47" s="5"/>
+    </row>
+    <row r="48" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>51</v>
       </c>
@@ -4748,8 +4854,10 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="5"/>
-    </row>
-    <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T48" s="7"/>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>51</v>
       </c>
@@ -4782,17 +4890,19 @@
         <v>602</v>
       </c>
       <c r="L49" s="5"/>
-      <c r="M49" s="5" t="s">
-        <v>610</v>
-      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
-    </row>
-    <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S49" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="T49" s="7"/>
+      <c r="U49" s="5"/>
+    </row>
+    <row r="50" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>51</v>
       </c>
@@ -4834,8 +4944,10 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="5"/>
-    </row>
-    <row r="51" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T50" s="7"/>
+      <c r="U50" s="5"/>
+    </row>
+    <row r="51" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>51</v>
       </c>
@@ -4877,8 +4989,10 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="5"/>
-    </row>
-    <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T51" s="7"/>
+      <c r="U51" s="5"/>
+    </row>
+    <row r="52" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4922,8 +5036,10 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="5"/>
-    </row>
-    <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T52" s="7"/>
+      <c r="U52" s="5"/>
+    </row>
+    <row r="53" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -4958,17 +5074,19 @@
       <c r="L53" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M53" s="5" t="s">
-        <v>616</v>
-      </c>
+      <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
-    </row>
-    <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S53" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="T53" s="7"/>
+      <c r="U53" s="5"/>
+    </row>
+    <row r="54" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -5005,17 +5123,19 @@
       <c r="L54" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M54" s="5" t="s">
-        <v>568</v>
-      </c>
+      <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="5"/>
-    </row>
-    <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S54" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="T54" s="7"/>
+      <c r="U54" s="5"/>
+    </row>
+    <row r="55" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>51</v>
       </c>
@@ -5059,8 +5179,10 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="5"/>
-    </row>
-    <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T55" s="7"/>
+      <c r="U55" s="5"/>
+    </row>
+    <row r="56" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>51</v>
       </c>
@@ -5102,8 +5224,10 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="5"/>
-    </row>
-    <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T56" s="7"/>
+      <c r="U56" s="5"/>
+    </row>
+    <row r="57" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>51</v>
       </c>
@@ -5140,17 +5264,19 @@
       <c r="L57" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>621</v>
-      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
-    </row>
-    <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S57" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="T57" s="7"/>
+      <c r="U57" s="5"/>
+    </row>
+    <row r="58" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>51</v>
       </c>
@@ -5185,17 +5311,19 @@
       <c r="L58" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M58" s="5" t="s">
-        <v>623</v>
-      </c>
+      <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
-    </row>
-    <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S58" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="T58" s="7"/>
+      <c r="U58" s="5"/>
+    </row>
+    <row r="59" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>51</v>
       </c>
@@ -5230,17 +5358,19 @@
       <c r="L59" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>625</v>
-      </c>
+      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
-    </row>
-    <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S59" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="T59" s="7"/>
+      <c r="U59" s="5"/>
+    </row>
+    <row r="60" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>51</v>
       </c>
@@ -5284,8 +5414,10 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="5"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T60" s="7"/>
+      <c r="U60" s="5"/>
+    </row>
+    <row r="61" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>51</v>
       </c>
@@ -5327,8 +5459,10 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="5"/>
-    </row>
-    <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T61" s="7"/>
+      <c r="U61" s="5"/>
+    </row>
+    <row r="62" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>51</v>
       </c>
@@ -5365,17 +5499,19 @@
       <c r="L62" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>629</v>
-      </c>
+      <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
-    </row>
-    <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S62" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="T62" s="7"/>
+      <c r="U62" s="5"/>
+    </row>
+    <row r="63" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>51</v>
       </c>
@@ -5419,8 +5555,10 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="5"/>
-    </row>
-    <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T63" s="7"/>
+      <c r="U63" s="5"/>
+    </row>
+    <row r="64" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>51</v>
       </c>
@@ -5462,8 +5600,10 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="5"/>
-    </row>
-    <row r="65" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T64" s="7"/>
+      <c r="U64" s="5"/>
+    </row>
+    <row r="65" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>51</v>
       </c>
@@ -5500,17 +5640,19 @@
       <c r="L65" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>633</v>
-      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
-    </row>
-    <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S65" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="T65" s="7"/>
+      <c r="U65" s="5"/>
+    </row>
+    <row r="66" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>51</v>
       </c>
@@ -5547,17 +5689,19 @@
       <c r="L66" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M66" s="5" t="s">
-        <v>634</v>
-      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
-    </row>
-    <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S66" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="T66" s="7"/>
+      <c r="U66" s="5"/>
+    </row>
+    <row r="67" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>51</v>
       </c>
@@ -5599,8 +5743,10 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="5"/>
-    </row>
-    <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T67" s="7"/>
+      <c r="U67" s="5"/>
+    </row>
+    <row r="68" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>51</v>
       </c>
@@ -5644,8 +5790,10 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="5"/>
-    </row>
-    <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T68" s="7"/>
+      <c r="U68" s="5"/>
+    </row>
+    <row r="69" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>51</v>
       </c>
@@ -5687,8 +5835,10 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
       <c r="S69" s="5"/>
-    </row>
-    <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T69" s="7"/>
+      <c r="U69" s="5"/>
+    </row>
+    <row r="70" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>51</v>
       </c>
@@ -5730,8 +5880,10 @@
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
       <c r="S70" s="5"/>
-    </row>
-    <row r="71" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T70" s="7"/>
+      <c r="U70" s="5"/>
+    </row>
+    <row r="71" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>51</v>
       </c>
@@ -5773,8 +5925,10 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="5"/>
-    </row>
-    <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T71" s="7"/>
+      <c r="U71" s="5"/>
+    </row>
+    <row r="72" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>51</v>
       </c>
@@ -5816,8 +5970,10 @@
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
       <c r="S72" s="5"/>
-    </row>
-    <row r="73" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T72" s="7"/>
+      <c r="U72" s="5"/>
+    </row>
+    <row r="73" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>51</v>
       </c>
@@ -5852,17 +6008,19 @@
       <c r="L73" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M73" s="5" t="s">
-        <v>616</v>
-      </c>
+      <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="5"/>
-    </row>
-    <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S73" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="T73" s="7"/>
+      <c r="U73" s="5"/>
+    </row>
+    <row r="74" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>51</v>
       </c>
@@ -5899,17 +6057,19 @@
       <c r="L74" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M74" s="5" t="s">
-        <v>643</v>
-      </c>
+      <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
-    </row>
-    <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S74" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="T74" s="7"/>
+      <c r="U74" s="5"/>
+    </row>
+    <row r="75" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>51</v>
       </c>
@@ -5953,8 +6113,10 @@
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="5"/>
-    </row>
-    <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T75" s="7"/>
+      <c r="U75" s="5"/>
+    </row>
+    <row r="76" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>51</v>
       </c>
@@ -5996,8 +6158,10 @@
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="5"/>
-    </row>
-    <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T76" s="7"/>
+      <c r="U76" s="5"/>
+    </row>
+    <row r="77" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>51</v>
       </c>
@@ -6032,17 +6196,19 @@
       <c r="L77" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M77" s="5" t="s">
-        <v>647</v>
-      </c>
+      <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
-    </row>
-    <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S77" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="T77" s="7"/>
+      <c r="U77" s="5"/>
+    </row>
+    <row r="78" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>51</v>
       </c>
@@ -6086,8 +6252,10 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="5"/>
-    </row>
-    <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T78" s="7"/>
+      <c r="U78" s="5"/>
+    </row>
+    <row r="79" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>51</v>
       </c>
@@ -6122,17 +6290,19 @@
       <c r="L79" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M79" s="5" t="s">
-        <v>649</v>
-      </c>
+      <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="5"/>
-    </row>
-    <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S79" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="T79" s="7"/>
+      <c r="U79" s="5"/>
+    </row>
+    <row r="80" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>51</v>
       </c>
@@ -6176,8 +6346,10 @@
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="5"/>
-    </row>
-    <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T80" s="7"/>
+      <c r="U80" s="5"/>
+    </row>
+    <row r="81" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>51</v>
       </c>
@@ -6221,8 +6393,10 @@
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
       <c r="S81" s="5"/>
-    </row>
-    <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T81" s="7"/>
+      <c r="U81" s="5"/>
+    </row>
+    <row r="82" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>51</v>
       </c>
@@ -6266,8 +6440,10 @@
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="5"/>
-    </row>
-    <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T82" s="7"/>
+      <c r="U82" s="5"/>
+    </row>
+    <row r="83" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>51</v>
       </c>
@@ -6304,17 +6480,19 @@
       <c r="L83" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M83" s="5" t="s">
-        <v>616</v>
-      </c>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
-    </row>
-    <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S83" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="T83" s="7"/>
+      <c r="U83" s="5"/>
+    </row>
+    <row r="84" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>51</v>
       </c>
@@ -6358,8 +6536,10 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="5"/>
-    </row>
-    <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T84" s="7"/>
+      <c r="U84" s="5"/>
+    </row>
+    <row r="85" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>51</v>
       </c>
@@ -6396,17 +6576,19 @@
       <c r="L85" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="M85" s="5" t="s">
-        <v>656</v>
-      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
-    </row>
-    <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S85" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="T85" s="7"/>
+      <c r="U85" s="5"/>
+    </row>
+    <row r="86" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>51</v>
       </c>
@@ -6441,17 +6623,19 @@
       <c r="L86" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M86" s="5" t="s">
-        <v>658</v>
-      </c>
+      <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="5"/>
-    </row>
-    <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S86" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="T86" s="7"/>
+      <c r="U86" s="5"/>
+    </row>
+    <row r="87" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>51</v>
       </c>
@@ -6493,8 +6677,10 @@
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
       <c r="S87" s="5"/>
-    </row>
-    <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T87" s="7"/>
+      <c r="U87" s="5"/>
+    </row>
+    <row r="88" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>51</v>
       </c>
@@ -6538,8 +6724,10 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="5"/>
-    </row>
-    <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T88" s="7"/>
+      <c r="U88" s="5"/>
+    </row>
+    <row r="89" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>51</v>
       </c>
@@ -6581,8 +6769,10 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="5"/>
-    </row>
-    <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T89" s="7"/>
+      <c r="U89" s="5"/>
+    </row>
+    <row r="90" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>51</v>
       </c>
@@ -6624,8 +6814,10 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="5"/>
-    </row>
-    <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T90" s="7"/>
+      <c r="U90" s="5"/>
+    </row>
+    <row r="91" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>51</v>
       </c>
@@ -6669,8 +6861,10 @@
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
       <c r="S91" s="5"/>
-    </row>
-    <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T91" s="7"/>
+      <c r="U91" s="5"/>
+    </row>
+    <row r="92" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>51</v>
       </c>
@@ -6705,17 +6899,19 @@
       <c r="L92" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M92" s="5" t="s">
-        <v>665</v>
-      </c>
+      <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
-    </row>
-    <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S92" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="T92" s="7"/>
+      <c r="U92" s="5"/>
+    </row>
+    <row r="93" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>51</v>
       </c>
@@ -6748,17 +6944,19 @@
         <v>602</v>
       </c>
       <c r="L93" s="5"/>
-      <c r="M93" s="5" t="s">
-        <v>666</v>
-      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
-    </row>
-    <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S93" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="T93" s="7"/>
+      <c r="U93" s="5"/>
+    </row>
+    <row r="94" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>51</v>
       </c>
@@ -6793,17 +6991,19 @@
       <c r="L94" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M94" s="5" t="s">
-        <v>667</v>
-      </c>
+      <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="5"/>
-    </row>
-    <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S94" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="T94" s="7"/>
+      <c r="U94" s="5"/>
+    </row>
+    <row r="95" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>51</v>
       </c>
@@ -6847,8 +7047,10 @@
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
       <c r="S95" s="5"/>
-    </row>
-    <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T95" s="7"/>
+      <c r="U95" s="5"/>
+    </row>
+    <row r="96" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>51</v>
       </c>
@@ -6883,17 +7085,19 @@
       <c r="L96" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M96" s="5" t="s">
-        <v>672</v>
-      </c>
+      <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="5"/>
-    </row>
-    <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S96" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="T96" s="7"/>
+      <c r="U96" s="5"/>
+    </row>
+    <row r="97" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>51</v>
       </c>
@@ -6928,17 +7132,19 @@
       <c r="L97" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M97" s="5" t="s">
-        <v>674</v>
-      </c>
+      <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
-    </row>
-    <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S97" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="T97" s="7"/>
+      <c r="U97" s="5"/>
+    </row>
+    <row r="98" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>51</v>
       </c>
@@ -6980,8 +7186,10 @@
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
       <c r="S98" s="5"/>
-    </row>
-    <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T98" s="7"/>
+      <c r="U98" s="5"/>
+    </row>
+    <row r="99" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>51</v>
       </c>
@@ -7018,17 +7226,19 @@
       <c r="L99" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="M99" s="5" t="s">
-        <v>560</v>
-      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
-    </row>
-    <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S99" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="T99" s="7"/>
+      <c r="U99" s="5"/>
+    </row>
+    <row r="100" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>51</v>
       </c>
@@ -7065,17 +7275,19 @@
       <c r="L100" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="M100" s="5" t="s">
-        <v>678</v>
-      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
-    </row>
-    <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S100" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="T100" s="7"/>
+      <c r="U100" s="5"/>
+    </row>
+    <row r="101" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>51</v>
       </c>
@@ -7108,17 +7320,19 @@
         <v>602</v>
       </c>
       <c r="L101" s="5"/>
-      <c r="M101" s="5" t="s">
-        <v>679</v>
-      </c>
+      <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
-    </row>
-    <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S101" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="T101" s="7"/>
+      <c r="U101" s="5"/>
+    </row>
+    <row r="102" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>51</v>
       </c>
@@ -7160,8 +7374,10 @@
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
       <c r="S102" s="5"/>
-    </row>
-    <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T102" s="7"/>
+      <c r="U102" s="5"/>
+    </row>
+    <row r="103" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>51</v>
       </c>
@@ -7196,17 +7412,19 @@
       <c r="L103" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M103" s="5" t="s">
-        <v>682</v>
-      </c>
+      <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="5"/>
-    </row>
-    <row r="104" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S103" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="T103" s="7"/>
+      <c r="U103" s="5"/>
+    </row>
+    <row r="104" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>51</v>
       </c>
@@ -7241,17 +7459,19 @@
       <c r="L104" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M104" s="5" t="s">
-        <v>684</v>
-      </c>
+      <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="5"/>
-    </row>
-    <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S104" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="T104" s="7"/>
+      <c r="U104" s="5"/>
+    </row>
+    <row r="105" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>51</v>
       </c>
@@ -7295,8 +7515,10 @@
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
       <c r="S105" s="5"/>
-    </row>
-    <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T105" s="7"/>
+      <c r="U105" s="5"/>
+    </row>
+    <row r="106" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>51</v>
       </c>
@@ -7331,17 +7553,19 @@
       <c r="L106" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M106" s="5" t="s">
-        <v>687</v>
-      </c>
+      <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="5"/>
-    </row>
-    <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S106" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="T106" s="7"/>
+      <c r="U106" s="5"/>
+    </row>
+    <row r="107" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>51</v>
       </c>
@@ -7383,8 +7607,10 @@
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
       <c r="S107" s="5"/>
-    </row>
-    <row r="108" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T107" s="7"/>
+      <c r="U107" s="5"/>
+    </row>
+    <row r="108" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>51</v>
       </c>
@@ -7419,17 +7645,19 @@
       <c r="L108" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M108" s="5" t="s">
-        <v>690</v>
-      </c>
+      <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="5"/>
-    </row>
-    <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S108" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="T108" s="7"/>
+      <c r="U108" s="5"/>
+    </row>
+    <row r="109" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>51</v>
       </c>
@@ -7471,8 +7699,10 @@
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
       <c r="S109" s="5"/>
-    </row>
-    <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T109" s="7"/>
+      <c r="U109" s="5"/>
+    </row>
+    <row r="110" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>51</v>
       </c>
@@ -7507,17 +7737,19 @@
       <c r="L110" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M110" s="5" t="s">
-        <v>693</v>
-      </c>
+      <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-    </row>
-    <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S110" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+    </row>
+    <row r="111" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>51</v>
       </c>
@@ -7558,9 +7790,11 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-    </row>
-    <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S111" s="5"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+    </row>
+    <row r="112" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>51</v>
       </c>
@@ -7603,9 +7837,11 @@
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-    </row>
-    <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S112" s="5"/>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+    </row>
+    <row r="113" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>51</v>
       </c>
@@ -7642,17 +7878,19 @@
       <c r="L113" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M113" s="5" t="s">
-        <v>697</v>
-      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-    </row>
-    <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S113" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+    </row>
+    <row r="114" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>51</v>
       </c>
@@ -7687,17 +7925,19 @@
       <c r="L114" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M114" s="5" t="s">
-        <v>699</v>
-      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-    </row>
-    <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S114" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+    </row>
+    <row r="115" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>51</v>
       </c>
@@ -7734,17 +7974,19 @@
       <c r="L115" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M115" s="5" t="s">
-        <v>700</v>
-      </c>
+      <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-    </row>
-    <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S115" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+    </row>
+    <row r="116" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>51</v>
       </c>
@@ -7785,9 +8027,11 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-    </row>
-    <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S116" s="5"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+    </row>
+    <row r="117" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>51</v>
       </c>
@@ -7830,9 +8074,11 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-    </row>
-    <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S117" s="5"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+    </row>
+    <row r="118" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>51</v>
       </c>
@@ -7869,17 +8115,19 @@
       <c r="L118" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M118" s="5" t="s">
-        <v>704</v>
-      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-    </row>
-    <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S118" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+    </row>
+    <row r="119" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>51</v>
       </c>
@@ -7923,8 +8171,10 @@
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
       <c r="S119" s="5"/>
-    </row>
-    <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T119" s="7"/>
+      <c r="U119" s="5"/>
+    </row>
+    <row r="120" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>51</v>
       </c>
@@ -7957,17 +8207,19 @@
         <v>602</v>
       </c>
       <c r="L120" s="5"/>
-      <c r="M120" s="5" t="s">
-        <v>706</v>
-      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
-    </row>
-    <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S120" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="T120" s="7"/>
+      <c r="U120" s="5"/>
+    </row>
+    <row r="121" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>51</v>
       </c>
@@ -8011,8 +8263,10 @@
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
       <c r="S121" s="5"/>
-    </row>
-    <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T121" s="7"/>
+      <c r="U121" s="5"/>
+    </row>
+    <row r="122" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>51</v>
       </c>
@@ -8054,8 +8308,10 @@
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
       <c r="S122" s="5"/>
-    </row>
-    <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T122" s="7"/>
+      <c r="U122" s="5"/>
+    </row>
+    <row r="123" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>51</v>
       </c>
@@ -8092,17 +8348,19 @@
       <c r="L123" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M123" s="5" t="s">
-        <v>709</v>
-      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
-    </row>
-    <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S123" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="T123" s="7"/>
+      <c r="U123" s="5"/>
+    </row>
+    <row r="124" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>51</v>
       </c>
@@ -8139,17 +8397,19 @@
       <c r="L124" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M124" s="5" t="s">
-        <v>711</v>
-      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
-    </row>
-    <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S124" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="T124" s="7"/>
+      <c r="U124" s="5"/>
+    </row>
+    <row r="125" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>51</v>
       </c>
@@ -8184,17 +8444,19 @@
       <c r="L125" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M125" s="5" t="s">
-        <v>713</v>
-      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
-    </row>
-    <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S125" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="T125" s="7"/>
+      <c r="U125" s="5"/>
+    </row>
+    <row r="126" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>51</v>
       </c>
@@ -8236,8 +8498,10 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="5"/>
-    </row>
-    <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T126" s="7"/>
+      <c r="U126" s="5"/>
+    </row>
+    <row r="127" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>51</v>
       </c>
@@ -8272,17 +8536,19 @@
       <c r="L127" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M127" s="5" t="s">
-        <v>715</v>
-      </c>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
-    </row>
-    <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S127" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="T127" s="7"/>
+      <c r="U127" s="5"/>
+    </row>
+    <row r="128" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>51</v>
       </c>
@@ -8326,8 +8592,10 @@
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
       <c r="S128" s="5"/>
-    </row>
-    <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T128" s="7"/>
+      <c r="U128" s="5"/>
+    </row>
+    <row r="129" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>51</v>
       </c>
@@ -8371,8 +8639,10 @@
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
       <c r="S129" s="5"/>
-    </row>
-    <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T129" s="7"/>
+      <c r="U129" s="5"/>
+    </row>
+    <row r="130" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>51</v>
       </c>
@@ -8407,17 +8677,19 @@
       <c r="L130" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M130" s="5" t="s">
-        <v>720</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
-    </row>
-    <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S130" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="T130" s="7"/>
+      <c r="U130" s="5"/>
+    </row>
+    <row r="131" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>51</v>
       </c>
@@ -8454,18 +8726,20 @@
       <c r="L131" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M131" s="5" t="s">
-        <v>722</v>
-      </c>
+      <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="T131" s="7"/>
+      <c r="U131" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S131"/>
+  <autoFilter ref="A1:U131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/Yakut_data.xlsx
+++ b/sources/Yakut_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="727">
   <si>
     <t>language_no</t>
   </si>
@@ -1638,18 +1638,9 @@
     <t>NOM</t>
   </si>
   <si>
-    <t>POSSNOM</t>
-  </si>
-  <si>
     <t>Та же лексема, что 2</t>
   </si>
   <si>
-    <t>INSTR</t>
-  </si>
-  <si>
-    <t>NOMINSTR</t>
-  </si>
-  <si>
     <t>Та же лексема, что 1</t>
   </si>
   <si>
@@ -1659,9 +1650,6 @@
     <t>ABL</t>
   </si>
   <si>
-    <t>NOMABL</t>
-  </si>
-  <si>
     <t>бырах-</t>
   </si>
   <si>
@@ -1674,18 +1662,12 @@
     <t>DAT</t>
   </si>
   <si>
-    <t>DATNOM</t>
-  </si>
-  <si>
     <t>Это тот же глагол, что в 21 (и в 56 он с отрицанием)</t>
   </si>
   <si>
     <t>майгынны-</t>
   </si>
   <si>
-    <t>NOMDAT</t>
-  </si>
-  <si>
     <t>итэҕэй-</t>
   </si>
   <si>
@@ -1749,21 +1731,12 @@
     <t>COM</t>
   </si>
   <si>
-    <t>NOMCOM</t>
-  </si>
-  <si>
     <t>доҕордоһо-</t>
   </si>
   <si>
     <t>толкуй-</t>
   </si>
   <si>
-    <t xml:space="preserve">туһунан </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMtuhunan </t>
-  </si>
-  <si>
     <t>сиэ-</t>
   </si>
   <si>
@@ -1815,9 +1788,6 @@
     <t>ADJ</t>
   </si>
   <si>
-    <t>NOMADJ</t>
-  </si>
-  <si>
     <t>В качестве альтернативы названа конструкция X-DAT Y.NOM баар</t>
   </si>
   <si>
@@ -1866,9 +1836,6 @@
     <t>дэн-</t>
   </si>
   <si>
-    <t>NOMNOM</t>
-  </si>
-  <si>
     <t>кэһэт-</t>
   </si>
   <si>
@@ -2031,12 +1998,6 @@
     <t>буккуллу-</t>
   </si>
   <si>
-    <t>кытта</t>
-  </si>
-  <si>
-    <t>NOMkytta</t>
-  </si>
-  <si>
     <t>кэтээ-н көр-</t>
   </si>
   <si>
@@ -2175,12 +2136,6 @@
     <t>хомой-</t>
   </si>
   <si>
-    <t>сылтаан</t>
-  </si>
-  <si>
-    <t>NOMsyltaan</t>
-  </si>
-  <si>
     <t>кыйахан-</t>
   </si>
   <si>
@@ -2200,6 +2155,54 @@
   </si>
   <si>
     <t>sentence_original_orthography</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>DAT_NOM</t>
+  </si>
+  <si>
+    <t>POSS_NOM</t>
+  </si>
+  <si>
+    <t>NOM_ABL</t>
+  </si>
+  <si>
+    <t>NOM_DAT</t>
+  </si>
+  <si>
+    <t>NOM_COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOM_tuhunan </t>
+  </si>
+  <si>
+    <t>NOM_ADJ</t>
+  </si>
+  <si>
+    <t>NOM_kytta</t>
+  </si>
+  <si>
+    <t>NOM_syltaan</t>
+  </si>
+  <si>
+    <t>NOM_NOM</t>
+  </si>
+  <si>
+    <t>INS</t>
+  </si>
+  <si>
+    <t>NOM_INS</t>
+  </si>
+  <si>
+    <t>kytta</t>
+  </si>
+  <si>
+    <t>syltaan</t>
+  </si>
+  <si>
+    <t>tuhunan</t>
   </si>
 </sst>
 </file>
@@ -2576,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2664,10 +2667,10 @@
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
@@ -2675,7 +2678,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -2705,7 +2708,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>538</v>
+        <v>713</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -2714,7 +2717,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="5"/>
@@ -2724,7 +2727,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -2748,13 +2751,13 @@
         <v>537</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>540</v>
+        <v>722</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>541</v>
+        <v>723</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -2763,7 +2766,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="5"/>
@@ -2773,7 +2776,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -2791,19 +2794,19 @@
         <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>545</v>
+        <v>714</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2820,7 +2823,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -2838,17 +2841,19 @@
         <v>34</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K5" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2865,7 +2870,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -2883,10 +2888,10 @@
         <v>38</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>537</v>
@@ -2895,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>550</v>
+        <v>712</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2904,7 +2909,7 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
@@ -2914,7 +2919,7 @@
         <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -2932,19 +2937,19 @@
         <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2961,7 +2966,7 @@
         <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -2979,19 +2984,19 @@
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -3000,7 +3005,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="5" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="5"/>
@@ -3010,7 +3015,7 @@
         <v>51</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
@@ -3028,17 +3033,19 @@
         <v>50</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K9" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -3055,7 +3062,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C10" s="4">
         <v>9</v>
@@ -3073,17 +3080,19 @@
         <v>54</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K10" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -3100,7 +3109,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
@@ -3118,19 +3127,19 @@
         <v>58</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -3147,7 +3156,7 @@
         <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -3165,17 +3174,19 @@
         <v>62</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J12" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K12" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -3184,7 +3195,7 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="5" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="T12" s="7"/>
       <c r="U12" s="5"/>
@@ -3194,7 +3205,7 @@
         <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C13" s="4">
         <v>12</v>
@@ -3212,19 +3223,19 @@
         <v>66</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -3241,7 +3252,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C14" s="4">
         <v>13</v>
@@ -3259,17 +3270,19 @@
         <v>70</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K14" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -3286,7 +3299,7 @@
         <v>51</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C15" s="4">
         <v>14</v>
@@ -3304,19 +3317,19 @@
         <v>74</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>545</v>
+        <v>714</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -3333,7 +3346,7 @@
         <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C16" s="4">
         <v>15</v>
@@ -3351,17 +3364,19 @@
         <v>78</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K16" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -3378,7 +3393,7 @@
         <v>51</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
@@ -3396,17 +3411,19 @@
         <v>82</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K17" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -3423,7 +3440,7 @@
         <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -3441,19 +3458,19 @@
         <v>86</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -3470,7 +3487,7 @@
         <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -3488,17 +3505,19 @@
         <v>90</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K19" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -3507,7 +3526,7 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="5" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="5"/>
@@ -3517,7 +3536,7 @@
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C20" s="4">
         <v>19</v>
@@ -3535,17 +3554,19 @@
         <v>94</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K20" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -3562,7 +3583,7 @@
         <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C21" s="4">
         <v>20</v>
@@ -3580,17 +3601,19 @@
         <v>98</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K21" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -3607,7 +3630,7 @@
         <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -3625,19 +3648,19 @@
         <v>102</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -3646,7 +3669,7 @@
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="5" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="T22" s="7"/>
       <c r="U22" s="9"/>
@@ -3656,7 +3679,7 @@
         <v>51</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C23" s="4">
         <v>22</v>
@@ -3674,17 +3697,19 @@
         <v>106</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J23" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K23" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -3701,7 +3726,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C24" s="4">
         <v>23</v>
@@ -3719,19 +3744,19 @@
         <v>110</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>575</v>
+        <v>716</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -3748,7 +3773,7 @@
         <v>51</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C25" s="4">
         <v>24</v>
@@ -3766,19 +3791,19 @@
         <v>114</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>575</v>
+        <v>716</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -3795,7 +3820,7 @@
         <v>51</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C26" s="4">
         <v>25</v>
@@ -3813,19 +3838,19 @@
         <v>118</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>578</v>
+        <v>726</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>579</v>
+        <v>717</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -3842,7 +3867,7 @@
         <v>51</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C27" s="4">
         <v>26</v>
@@ -3860,17 +3885,19 @@
         <v>122</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K27" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -3879,7 +3906,7 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="5" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="T27" s="7"/>
       <c r="U27" s="5"/>
@@ -3889,7 +3916,7 @@
         <v>51</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C28" s="4">
         <v>27</v>
@@ -3907,17 +3934,19 @@
         <v>126</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K28" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -3926,7 +3955,7 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="T28" s="7"/>
       <c r="U28" s="5"/>
@@ -3936,7 +3965,7 @@
         <v>51</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C29" s="4">
         <v>28</v>
@@ -3954,17 +3983,19 @@
         <v>130</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K29" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -3981,7 +4012,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C30" s="4">
         <v>29</v>
@@ -3999,19 +4030,19 @@
         <v>134</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>578</v>
+        <v>726</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>579</v>
+        <v>717</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -4028,7 +4059,7 @@
         <v>51</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C31" s="4">
         <v>30</v>
@@ -4046,19 +4077,19 @@
         <v>138</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>545</v>
+        <v>714</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -4067,7 +4098,7 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="T31" s="7"/>
       <c r="U31" s="5"/>
@@ -4077,7 +4108,7 @@
         <v>51</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C32" s="4">
         <v>31</v>
@@ -4095,17 +4126,19 @@
         <v>142</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K32" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -4122,7 +4155,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C33" s="4">
         <v>32</v>
@@ -4140,19 +4173,19 @@
         <v>146</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>575</v>
+        <v>716</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -4169,7 +4202,7 @@
         <v>51</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C34" s="4">
         <v>33</v>
@@ -4187,17 +4220,19 @@
         <v>150</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K34" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -4214,7 +4249,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C35" s="4">
         <v>34</v>
@@ -4232,19 +4267,19 @@
         <v>154</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -4253,7 +4288,7 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="5" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="T35" s="7"/>
       <c r="U35" s="5"/>
@@ -4263,7 +4298,7 @@
         <v>51</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C36" s="4">
         <v>35</v>
@@ -4281,17 +4316,19 @@
         <v>158</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J36" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K36" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -4308,7 +4345,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C37" s="4">
         <v>36</v>
@@ -4326,17 +4363,19 @@
         <v>162</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K37" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -4345,7 +4384,7 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="5" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="T37" s="7"/>
       <c r="U37" s="5"/>
@@ -4355,7 +4394,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C38" s="4">
         <v>37</v>
@@ -4373,17 +4412,19 @@
         <v>166</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J38" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K38" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -4392,7 +4433,7 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="5" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="T38" s="7"/>
       <c r="U38" s="5"/>
@@ -4402,7 +4443,7 @@
         <v>51</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C39" s="4">
         <v>38</v>
@@ -4426,13 +4467,13 @@
         <v>537</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>597</v>
+        <v>718</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -4441,7 +4482,7 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="5" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="T39" s="7"/>
       <c r="U39" s="5"/>
@@ -4451,7 +4492,7 @@
         <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C40" s="4">
         <v>39</v>
@@ -4469,17 +4510,19 @@
         <v>173</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K40" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -4488,7 +4531,7 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="5" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="T40" s="7"/>
       <c r="U40" s="5"/>
@@ -4498,7 +4541,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C41" s="4">
         <v>40</v>
@@ -4516,17 +4559,19 @@
         <v>177</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K41" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -4543,7 +4588,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C42" s="4">
         <v>41</v>
@@ -4561,17 +4606,19 @@
         <v>181</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K42" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -4588,7 +4635,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C43" s="4">
         <v>42</v>
@@ -4606,14 +4653,16 @@
         <v>185</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="J43" s="5"/>
+        <v>592</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>592</v>
+      </c>
       <c r="K43" s="5" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -4623,7 +4672,7 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="5" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="T43" s="7"/>
       <c r="U43" s="5"/>
@@ -4633,7 +4682,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C44" s="4">
         <v>43</v>
@@ -4651,14 +4700,16 @@
         <v>189</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>592</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>592</v>
+      </c>
       <c r="K44" s="5" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -4668,7 +4719,7 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="5" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="T44" s="7"/>
       <c r="U44" s="5"/>
@@ -4678,7 +4729,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C45" s="4">
         <v>44</v>
@@ -4696,17 +4747,19 @@
         <v>193</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K45" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -4723,7 +4776,7 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C46" s="4">
         <v>45</v>
@@ -4741,19 +4794,19 @@
         <v>197</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -4770,7 +4823,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C47" s="4">
         <v>46</v>
@@ -4788,17 +4841,19 @@
         <v>201</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K47" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -4815,7 +4870,7 @@
         <v>51</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C48" s="4">
         <v>47</v>
@@ -4833,19 +4888,19 @@
         <v>205</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>540</v>
+        <v>722</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>541</v>
+        <v>723</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -4862,7 +4917,7 @@
         <v>51</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C49" s="4">
         <v>48</v>
@@ -4880,14 +4935,16 @@
         <v>209</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="J49" s="5"/>
+        <v>592</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>592</v>
+      </c>
       <c r="K49" s="5" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -4897,7 +4954,7 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="5" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="T49" s="7"/>
       <c r="U49" s="5"/>
@@ -4907,7 +4964,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C50" s="4">
         <v>49</v>
@@ -4925,17 +4982,19 @@
         <v>213</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K50" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -4952,7 +5011,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C51" s="4">
         <v>50</v>
@@ -4970,17 +5029,19 @@
         <v>217</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K51" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -4997,7 +5058,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C52" s="4">
         <v>51</v>
@@ -5015,7 +5076,7 @@
         <v>221</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>537</v>
@@ -5027,7 +5088,7 @@
         <v>9</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>614</v>
+        <v>721</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
@@ -5044,7 +5105,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C53" s="4">
         <v>52</v>
@@ -5062,17 +5123,19 @@
         <v>225</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J53" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K53" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -5081,7 +5144,7 @@
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="5" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="T53" s="7"/>
       <c r="U53" s="5"/>
@@ -5091,7 +5154,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C54" s="4">
         <v>53</v>
@@ -5109,19 +5172,19 @@
         <v>229</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -5130,7 +5193,7 @@
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="5" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="T54" s="7"/>
       <c r="U54" s="5"/>
@@ -5140,7 +5203,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C55" s="4">
         <v>54</v>
@@ -5158,19 +5221,19 @@
         <v>233</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>540</v>
+        <v>722</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>541</v>
+        <v>723</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -5187,7 +5250,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C56" s="4">
         <v>55</v>
@@ -5205,17 +5268,19 @@
         <v>237</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K56" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -5232,7 +5297,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C57" s="4">
         <v>56</v>
@@ -5250,10 +5315,10 @@
         <v>241</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>537</v>
@@ -5262,7 +5327,7 @@
         <v>8</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>550</v>
+        <v>712</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
@@ -5271,7 +5336,7 @@
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="5" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="T57" s="7"/>
       <c r="U57" s="5"/>
@@ -5281,7 +5346,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C58" s="4">
         <v>57</v>
@@ -5299,17 +5364,19 @@
         <v>245</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J58" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K58" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
@@ -5318,7 +5385,7 @@
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
       <c r="S58" s="5" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="T58" s="7"/>
       <c r="U58" s="5"/>
@@ -5328,7 +5395,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C59" s="4">
         <v>58</v>
@@ -5346,17 +5413,19 @@
         <v>249</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J59" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K59" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -5365,7 +5434,7 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="5" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="T59" s="7"/>
       <c r="U59" s="5"/>
@@ -5375,7 +5444,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C60" s="4">
         <v>59</v>
@@ -5393,19 +5462,19 @@
         <v>253</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
@@ -5422,7 +5491,7 @@
         <v>51</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C61" s="4">
         <v>60</v>
@@ -5440,17 +5509,19 @@
         <v>257</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K61" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -5467,7 +5538,7 @@
         <v>51</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C62" s="6">
         <v>61</v>
@@ -5485,10 +5556,10 @@
         <v>261</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>537</v>
@@ -5497,7 +5568,7 @@
         <v>8</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>550</v>
+        <v>712</v>
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
@@ -5506,7 +5577,7 @@
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="5" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="T62" s="7"/>
       <c r="U62" s="5"/>
@@ -5516,7 +5587,7 @@
         <v>51</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C63" s="4">
         <v>62</v>
@@ -5534,19 +5605,19 @@
         <v>265</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -5563,7 +5634,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C64" s="4">
         <v>63</v>
@@ -5581,17 +5652,19 @@
         <v>269</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K64" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -5608,7 +5681,7 @@
         <v>51</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C65" s="4">
         <v>64</v>
@@ -5626,19 +5699,19 @@
         <v>273</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>545</v>
+        <v>714</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -5647,7 +5720,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="5" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="T65" s="7"/>
       <c r="U65" s="5"/>
@@ -5657,7 +5730,7 @@
         <v>51</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C66" s="4">
         <v>65</v>
@@ -5675,19 +5748,19 @@
         <v>277</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>545</v>
+        <v>714</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
@@ -5696,7 +5769,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="5" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="T66" s="7"/>
       <c r="U66" s="5"/>
@@ -5706,7 +5779,7 @@
         <v>51</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C67" s="4">
         <v>66</v>
@@ -5724,17 +5797,19 @@
         <v>281</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K67" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
@@ -5751,7 +5826,7 @@
         <v>51</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C68" s="4">
         <v>67</v>
@@ -5769,7 +5844,7 @@
         <v>285</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>537</v>
@@ -5781,7 +5856,7 @@
         <v>9</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>614</v>
+        <v>721</v>
       </c>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
@@ -5798,7 +5873,7 @@
         <v>51</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C69" s="4">
         <v>68</v>
@@ -5816,17 +5891,19 @@
         <v>289</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J69" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K69" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
@@ -5843,7 +5920,7 @@
         <v>51</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C70" s="4">
         <v>69</v>
@@ -5861,17 +5938,19 @@
         <v>293</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K70" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
@@ -5888,7 +5967,7 @@
         <v>51</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C71" s="4">
         <v>70</v>
@@ -5906,17 +5985,19 @@
         <v>297</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K71" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -5933,7 +6014,7 @@
         <v>51</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C72" s="4">
         <v>71</v>
@@ -5951,17 +6032,19 @@
         <v>301</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K72" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -5978,7 +6061,7 @@
         <v>51</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C73" s="4">
         <v>72</v>
@@ -5996,17 +6079,19 @@
         <v>305</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K73" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
@@ -6015,7 +6100,7 @@
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
       <c r="S73" s="5" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="T73" s="7"/>
       <c r="U73" s="5"/>
@@ -6025,7 +6110,7 @@
         <v>51</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C74" s="4">
         <v>73</v>
@@ -6043,19 +6128,19 @@
         <v>309</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -6064,7 +6149,7 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="5" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="T74" s="7"/>
       <c r="U74" s="5"/>
@@ -6074,7 +6159,7 @@
         <v>51</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C75" s="4">
         <v>74</v>
@@ -6092,19 +6177,19 @@
         <v>313</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>545</v>
+        <v>714</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
@@ -6121,7 +6206,7 @@
         <v>51</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C76" s="4">
         <v>75</v>
@@ -6139,17 +6224,19 @@
         <v>317</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K76" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
@@ -6166,7 +6253,7 @@
         <v>51</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C77" s="4">
         <v>76</v>
@@ -6184,17 +6271,19 @@
         <v>321</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J77" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K77" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -6203,7 +6292,7 @@
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
       <c r="S77" s="5" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="T77" s="7"/>
       <c r="U77" s="5"/>
@@ -6213,7 +6302,7 @@
         <v>51</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C78" s="4">
         <v>77</v>
@@ -6231,19 +6320,19 @@
         <v>325</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -6260,7 +6349,7 @@
         <v>51</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C79" s="4">
         <v>78</v>
@@ -6278,17 +6367,19 @@
         <v>329</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K79" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -6297,7 +6388,7 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
       <c r="S79" s="5" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="T79" s="7"/>
       <c r="U79" s="5"/>
@@ -6307,7 +6398,7 @@
         <v>51</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C80" s="4">
         <v>79</v>
@@ -6325,19 +6416,19 @@
         <v>333</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
@@ -6354,7 +6445,7 @@
         <v>51</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C81" s="4">
         <v>80</v>
@@ -6372,19 +6463,19 @@
         <v>337</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>540</v>
+        <v>722</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>541</v>
+        <v>723</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -6401,7 +6492,7 @@
         <v>51</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C82" s="4">
         <v>81</v>
@@ -6419,19 +6510,19 @@
         <v>341</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -6448,7 +6539,7 @@
         <v>51</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C83" s="4">
         <v>82</v>
@@ -6466,19 +6557,19 @@
         <v>345</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -6487,7 +6578,7 @@
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="5" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="T83" s="7"/>
       <c r="U83" s="5"/>
@@ -6497,7 +6588,7 @@
         <v>51</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C84" s="4">
         <v>83</v>
@@ -6515,19 +6606,19 @@
         <v>349</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
@@ -6544,7 +6635,7 @@
         <v>51</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C85" s="4">
         <v>84</v>
@@ -6562,19 +6653,19 @@
         <v>353</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>575</v>
+        <v>716</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -6583,7 +6674,7 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="5" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="T85" s="7"/>
       <c r="U85" s="5"/>
@@ -6593,7 +6684,7 @@
         <v>51</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C86" s="4">
         <v>85</v>
@@ -6611,17 +6702,19 @@
         <v>357</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K86" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -6630,7 +6723,7 @@
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="5" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="T86" s="7"/>
       <c r="U86" s="5"/>
@@ -6640,7 +6733,7 @@
         <v>51</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C87" s="4">
         <v>86</v>
@@ -6658,17 +6751,19 @@
         <v>361</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K87" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -6685,7 +6780,7 @@
         <v>51</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C88" s="4">
         <v>87</v>
@@ -6703,19 +6798,19 @@
         <v>365</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>540</v>
+        <v>722</v>
       </c>
       <c r="K88" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>541</v>
+        <v>723</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -6732,7 +6827,7 @@
         <v>51</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C89" s="4">
         <v>88</v>
@@ -6750,17 +6845,19 @@
         <v>369</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J89" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K89" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
@@ -6777,7 +6874,7 @@
         <v>51</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C90" s="4">
         <v>89</v>
@@ -6795,17 +6892,19 @@
         <v>373</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J90" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K90" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -6822,7 +6921,7 @@
         <v>51</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C91" s="4">
         <v>90</v>
@@ -6840,19 +6939,19 @@
         <v>377</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>545</v>
+        <v>714</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -6869,7 +6968,7 @@
         <v>51</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C92" s="4">
         <v>91</v>
@@ -6887,17 +6986,19 @@
         <v>381</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J92" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K92" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
@@ -6906,7 +7007,7 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="5" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="T92" s="7"/>
       <c r="U92" s="5"/>
@@ -6916,7 +7017,7 @@
         <v>51</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C93" s="4">
         <v>92</v>
@@ -6934,14 +7035,16 @@
         <v>385</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="J93" s="5"/>
+        <v>592</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>592</v>
+      </c>
       <c r="K93" s="5" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
@@ -6951,7 +7054,7 @@
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
       <c r="S93" s="5" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="T93" s="7"/>
       <c r="U93" s="5"/>
@@ -6961,7 +7064,7 @@
         <v>51</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C94" s="4">
         <v>93</v>
@@ -6979,17 +7082,19 @@
         <v>389</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K94" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -6998,7 +7103,7 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="5" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="T94" s="7"/>
       <c r="U94" s="5"/>
@@ -7008,7 +7113,7 @@
         <v>51</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C95" s="4">
         <v>94</v>
@@ -7026,19 +7131,19 @@
         <v>393</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>669</v>
+        <v>724</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>670</v>
+        <v>719</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -7055,7 +7160,7 @@
         <v>51</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C96" s="4">
         <v>95</v>
@@ -7073,17 +7178,19 @@
         <v>397</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J96" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K96" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -7092,7 +7199,7 @@
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="5" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="T96" s="7"/>
       <c r="U96" s="5"/>
@@ -7102,7 +7209,7 @@
         <v>51</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C97" s="4">
         <v>96</v>
@@ -7120,17 +7227,19 @@
         <v>401</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K97" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -7139,7 +7248,7 @@
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
       <c r="S97" s="5" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="T97" s="7"/>
       <c r="U97" s="5"/>
@@ -7149,7 +7258,7 @@
         <v>51</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C98" s="4">
         <v>97</v>
@@ -7167,17 +7276,19 @@
         <v>405</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J98" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K98" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -7194,7 +7305,7 @@
         <v>51</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C99" s="4">
         <v>98</v>
@@ -7212,19 +7323,19 @@
         <v>409</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>575</v>
+        <v>716</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -7233,7 +7344,7 @@
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
       <c r="S99" s="5" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="T99" s="7"/>
       <c r="U99" s="5"/>
@@ -7243,7 +7354,7 @@
         <v>51</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C100" s="4">
         <v>99</v>
@@ -7261,19 +7372,19 @@
         <v>413</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>575</v>
+        <v>716</v>
       </c>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -7282,7 +7393,7 @@
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="5" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="T100" s="7"/>
       <c r="U100" s="5"/>
@@ -7292,7 +7403,7 @@
         <v>51</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C101" s="4">
         <v>100</v>
@@ -7310,14 +7421,16 @@
         <v>417</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="J101" s="5"/>
+        <v>592</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>592</v>
+      </c>
       <c r="K101" s="5" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
@@ -7327,7 +7440,7 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="5" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="T101" s="7"/>
       <c r="U101" s="5"/>
@@ -7337,7 +7450,7 @@
         <v>51</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C102" s="4">
         <v>101</v>
@@ -7355,17 +7468,19 @@
         <v>421</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J102" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K102" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -7382,7 +7497,7 @@
         <v>51</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C103" s="4">
         <v>102</v>
@@ -7400,17 +7515,19 @@
         <v>425</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K103" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -7419,7 +7536,7 @@
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
       <c r="S103" s="5" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="T103" s="7"/>
       <c r="U103" s="5"/>
@@ -7429,7 +7546,7 @@
         <v>51</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C104" s="4">
         <v>103</v>
@@ -7447,17 +7564,19 @@
         <v>428</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K104" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -7466,7 +7585,7 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="5" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="T104" s="7"/>
       <c r="U104" s="5"/>
@@ -7476,7 +7595,7 @@
         <v>51</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C105" s="4">
         <v>104</v>
@@ -7494,19 +7613,19 @@
         <v>432</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -7523,7 +7642,7 @@
         <v>51</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C106" s="4">
         <v>105</v>
@@ -7541,17 +7660,19 @@
         <v>436</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K106" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -7560,7 +7681,7 @@
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
       <c r="S106" s="5" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="T106" s="7"/>
       <c r="U106" s="5"/>
@@ -7570,7 +7691,7 @@
         <v>51</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C107" s="4">
         <v>106</v>
@@ -7588,17 +7709,19 @@
         <v>439</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K107" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -7615,7 +7738,7 @@
         <v>51</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C108" s="4">
         <v>107</v>
@@ -7633,17 +7756,19 @@
         <v>443</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J108" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K108" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -7652,7 +7777,7 @@
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
       <c r="S108" s="5" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="T108" s="7"/>
       <c r="U108" s="5"/>
@@ -7662,7 +7787,7 @@
         <v>51</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C109" s="4">
         <v>108</v>
@@ -7680,17 +7805,19 @@
         <v>447</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K109" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -7707,7 +7834,7 @@
         <v>51</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C110" s="4">
         <v>109</v>
@@ -7725,17 +7852,19 @@
         <v>451</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K110" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -7744,7 +7873,7 @@
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
       <c r="S110" s="5" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="T110" s="7"/>
       <c r="U110" s="7"/>
@@ -7754,7 +7883,7 @@
         <v>51</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C111" s="4">
         <v>110</v>
@@ -7772,17 +7901,19 @@
         <v>455</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J111" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K111" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -7799,7 +7930,7 @@
         <v>51</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C112" s="4">
         <v>111</v>
@@ -7817,19 +7948,19 @@
         <v>459</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>545</v>
+        <v>714</v>
       </c>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -7846,7 +7977,7 @@
         <v>51</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C113" s="4">
         <v>112</v>
@@ -7864,19 +7995,19 @@
         <v>463</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>540</v>
+        <v>722</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>541</v>
+        <v>723</v>
       </c>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -7885,7 +8016,7 @@
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
       <c r="S113" s="5" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
@@ -7895,7 +8026,7 @@
         <v>51</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C114" s="4">
         <v>113</v>
@@ -7913,17 +8044,19 @@
         <v>467</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J114" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K114" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -7932,7 +8065,7 @@
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
       <c r="S114" s="5" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="T114" s="7"/>
       <c r="U114" s="7"/>
@@ -7942,7 +8075,7 @@
         <v>51</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C115" s="4">
         <v>114</v>
@@ -7960,19 +8093,19 @@
         <v>471</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -7981,7 +8114,7 @@
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
       <c r="S115" s="5" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
@@ -7991,7 +8124,7 @@
         <v>51</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C116" s="4">
         <v>115</v>
@@ -8009,17 +8142,19 @@
         <v>475</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J116" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K116" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
@@ -8036,7 +8171,7 @@
         <v>51</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C117" s="4">
         <v>116</v>
@@ -8054,19 +8189,19 @@
         <v>479</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K117" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -8083,7 +8218,7 @@
         <v>51</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C118" s="4">
         <v>117</v>
@@ -8101,19 +8236,19 @@
         <v>483</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -8122,7 +8257,7 @@
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="5" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
@@ -8132,7 +8267,7 @@
         <v>51</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C119" s="4">
         <v>118</v>
@@ -8150,19 +8285,19 @@
         <v>487</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -8179,7 +8314,7 @@
         <v>51</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C120" s="4">
         <v>119</v>
@@ -8197,14 +8332,16 @@
         <v>490</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="J120" s="5"/>
+        <v>592</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>592</v>
+      </c>
       <c r="K120" s="5" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
@@ -8214,7 +8351,7 @@
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
       <c r="S120" s="5" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="T120" s="7"/>
       <c r="U120" s="5"/>
@@ -8224,7 +8361,7 @@
         <v>51</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C121" s="4">
         <v>120</v>
@@ -8242,19 +8379,19 @@
         <v>494</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="I121" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>540</v>
+        <v>722</v>
       </c>
       <c r="K121" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>541</v>
+        <v>723</v>
       </c>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
@@ -8271,7 +8408,7 @@
         <v>51</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C122" s="4">
         <v>121</v>
@@ -8289,17 +8426,19 @@
         <v>498</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J122" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K122" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
@@ -8316,7 +8455,7 @@
         <v>51</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C123" s="4">
         <v>122</v>
@@ -8334,19 +8473,19 @@
         <v>502</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -8355,7 +8494,7 @@
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
       <c r="S123" s="5" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="T123" s="7"/>
       <c r="U123" s="5"/>
@@ -8365,7 +8504,7 @@
         <v>51</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C124" s="4">
         <v>123</v>
@@ -8383,19 +8522,19 @@
         <v>506</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>545</v>
+        <v>714</v>
       </c>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -8404,7 +8543,7 @@
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
       <c r="S124" s="5" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="T124" s="7"/>
       <c r="U124" s="5"/>
@@ -8414,7 +8553,7 @@
         <v>51</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C125" s="4">
         <v>124</v>
@@ -8432,17 +8571,19 @@
         <v>510</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K125" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
@@ -8451,7 +8592,7 @@
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
       <c r="S125" s="5" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="T125" s="7"/>
       <c r="U125" s="5"/>
@@ -8461,7 +8602,7 @@
         <v>51</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C126" s="4">
         <v>125</v>
@@ -8479,17 +8620,19 @@
         <v>514</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J126" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K126" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
@@ -8506,7 +8649,7 @@
         <v>51</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C127" s="4">
         <v>126</v>
@@ -8524,17 +8667,19 @@
         <v>518</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J127" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K127" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
@@ -8543,7 +8688,7 @@
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
       <c r="S127" s="5" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="T127" s="7"/>
       <c r="U127" s="5"/>
@@ -8553,7 +8698,7 @@
         <v>51</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C128" s="4">
         <v>127</v>
@@ -8571,19 +8716,19 @@
         <v>522</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -8600,7 +8745,7 @@
         <v>51</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C129" s="4">
         <v>128</v>
@@ -8618,19 +8763,19 @@
         <v>526</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>553</v>
+        <v>715</v>
       </c>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
@@ -8647,7 +8792,7 @@
         <v>51</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C130" s="4">
         <v>129</v>
@@ -8665,17 +8810,19 @@
         <v>530</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J130" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="K130" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
@@ -8684,7 +8831,7 @@
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
       <c r="S130" s="5" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="T130" s="7"/>
       <c r="U130" s="5"/>
@@ -8694,7 +8841,7 @@
         <v>51</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C131" s="4">
         <v>130</v>
@@ -8712,19 +8859,19 @@
         <v>534</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>545</v>
+        <v>714</v>
       </c>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
@@ -8733,7 +8880,7 @@
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
       <c r="S131" s="5" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="T131" s="7"/>
       <c r="U131" s="5"/>
